--- a/src/test/Resources/TestData/PageSpeedOutput.xlsx
+++ b/src/test/Resources/TestData/PageSpeedOutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="36">
   <si>
     <t>Tvs Url</t>
   </si>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -475,8 +475,8 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="40.23828125"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.40625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.0390625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.35546875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.98828125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.64453125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="4.64453125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,12 +508,6 @@
       <c r="D2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>12</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="0"/>

--- a/src/test/Resources/TestData/PageSpeedOutput.xlsx
+++ b/src/test/Resources/TestData/PageSpeedOutput.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="PageSpeed" r:id="rId5" sheetId="1"/>
+    <sheet name="PageSpeed" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="80">
   <si>
     <t>Tvs Url</t>
   </si>
@@ -31,97 +31,229 @@
     <t>FCP Value - Desktop</t>
   </si>
   <si>
+    <t>https://www.tvsmotor.com</t>
+  </si>
+  <si>
+    <t>4 s</t>
+  </si>
+  <si>
+    <t>2.3 s</t>
+  </si>
+  <si>
+    <t>3 s</t>
+  </si>
+  <si>
+    <t>1.5 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/overview</t>
+  </si>
+  <si>
+    <t>4.4 s</t>
+  </si>
+  <si>
+    <t>4.3 s</t>
+  </si>
+  <si>
+    <t>3.4 s</t>
+  </si>
+  <si>
+    <t>2.4 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/company-vision</t>
+  </si>
+  <si>
+    <t>4.1 s</t>
+  </si>
+  <si>
+    <t>2.5 s</t>
+  </si>
+  <si>
+    <t>2 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/sst</t>
+  </si>
+  <si>
+    <t>4.8 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/board-of-directors</t>
+  </si>
+  <si>
+    <t>4.7 s</t>
+  </si>
+  <si>
+    <t>3.5 s</t>
+  </si>
+  <si>
+    <t>3.8 s</t>
+  </si>
+  <si>
+    <t>1.9 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/achievements</t>
+  </si>
+  <si>
+    <t>1.8 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/careers/overview</t>
+  </si>
+  <si>
+    <t>5.1 s</t>
+  </si>
+  <si>
+    <t>4.2 s</t>
+  </si>
+  <si>
+    <t>4.5 s</t>
+  </si>
+  <si>
+    <t>2.9 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/about-us/contact-us</t>
+  </si>
+  <si>
+    <t>3.6 s</t>
+  </si>
+  <si>
+    <t>3.1 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/our-products/vehicles</t>
+  </si>
+  <si>
+    <t>3.7 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/our-service/our-products-and-offerings</t>
+  </si>
+  <si>
+    <t>2.2 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/our-service/amc</t>
+  </si>
+  <si>
+    <t>3.3 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/our-service/rsa</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/our-service/user-manual</t>
+  </si>
+  <si>
+    <t>2.8 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/investors/financial-reports</t>
+  </si>
+  <si>
+    <t>4.6 s</t>
+  </si>
+  <si>
+    <t>3.9 s</t>
+  </si>
+  <si>
+    <t>3.2 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/investors/investor-information</t>
+  </si>
+  <si>
+    <t>1.7 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/investors/overview</t>
+  </si>
+  <si>
+    <t>2.1 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/sustainability/esg-profile</t>
+  </si>
+  <si>
+    <t>6.2 s</t>
+  </si>
+  <si>
+    <t>2.7 s</t>
+  </si>
+  <si>
+    <t>10.3 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/media/press-release</t>
+  </si>
+  <si>
+    <t>7 s</t>
+  </si>
+  <si>
+    <t>6.7 s</t>
+  </si>
+  <si>
+    <t>5.5 s</t>
+  </si>
+  <si>
+    <t>5 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/media/blog/overview</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/media/press-kit</t>
+  </si>
+  <si>
+    <t>6.6 s</t>
+  </si>
+  <si>
+    <t>2.6 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/tvs-dealer-locator/tvs-2-wheeler</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/tvs-dealer-locator/tvs-service-center</t>
+  </si>
+  <si>
+    <t>1.6 s</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/tvs-dealer-locator/authorised-parts-stockist</t>
+  </si>
+  <si>
     <t>https://www.tvsmotor.com/book-a-ride</t>
   </si>
   <si>
-    <t>3.7 s</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>https://www.tvsmotor.com/book-online</t>
   </si>
   <si>
-    <t>https://www.tvsmotor.com/</t>
-  </si>
-  <si>
-    <t>4 s</t>
-  </si>
-  <si>
-    <t>2.3 s</t>
-  </si>
-  <si>
-    <t>1.5 s</t>
-  </si>
-  <si>
-    <t>3.1 s</t>
-  </si>
-  <si>
-    <t>3 s</t>
-  </si>
-  <si>
-    <t>1.6 s</t>
-  </si>
-  <si>
-    <t>3.8 s</t>
-  </si>
-  <si>
-    <t>2.6 s</t>
-  </si>
-  <si>
-    <t>2.1 s</t>
-  </si>
-  <si>
     <t>https://www.tvsmotor.com/account/login</t>
   </si>
   <si>
-    <t>4.2 s</t>
-  </si>
-  <si>
-    <t>3.4 s</t>
-  </si>
-  <si>
-    <t>3.2 s</t>
+    <t>https://www.tvsmotor.com/account/cancellogin</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/privacy-policy</t>
+  </si>
+  <si>
+    <t>https://www.tvsmotor.com/cookie-policy</t>
+  </si>
+  <si>
+    <t>4.9 s</t>
+  </si>
+  <si>
+    <t>5.2 s</t>
   </si>
   <si>
     <t>https://www.tvsmotor.com/become-a-dealer</t>
   </si>
   <si>
-    <t>4.9 s</t>
-  </si>
-  <si>
-    <t>4.7 s</t>
-  </si>
-  <si>
-    <t>3.9 s</t>
-  </si>
-  <si>
-    <t>https://www.tvsmotor.com/about-us/contact-us</t>
-  </si>
-  <si>
-    <t>4.8 s</t>
-  </si>
-  <si>
-    <t>3.6 s</t>
-  </si>
-  <si>
-    <t>https://www.tvsmotor.com/tvs-ntorq</t>
-  </si>
-  <si>
-    <t>6.2 s</t>
-  </si>
-  <si>
-    <t>2.8 s</t>
-  </si>
-  <si>
-    <t>https://www.tvsmotor.com/tvs-zest</t>
-  </si>
-  <si>
-    <t>2.7 s</t>
-  </si>
-  <si>
-    <t>2.5 s</t>
+    <t>https://www.tvsmotor.com/tru4-engine-oil</t>
   </si>
 </sst>
 </file>
@@ -463,20 +595,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.23828125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="59.01171875"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.40625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.0390625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.64453125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="4.64453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.35546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.98828125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,49 +632,55 @@
     <row r="2">
       <c r="A2" s="0"/>
       <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>9</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0"/>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0"/>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -551,67 +689,67 @@
         <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>20</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0"/>
       <c r="B6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0"/>
       <c r="B7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0"/>
       <c r="B8" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>31</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>26</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>32</v>
@@ -626,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>34</v>
@@ -635,7 +773,403 @@
         <v>35</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0"/>
+      <c r="B10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0"/>
+      <c r="B12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0"/>
+      <c r="B13" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0"/>
+      <c r="B14" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0"/>
+      <c r="B15" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0"/>
+      <c r="B16" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0"/>
+      <c r="B17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0"/>
+      <c r="B18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0"/>
+      <c r="B19" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0"/>
+      <c r="B20" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0"/>
+      <c r="B21" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0"/>
+      <c r="B22" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0"/>
+      <c r="B23" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0"/>
+      <c r="B24" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0"/>
+      <c r="B25" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0"/>
+      <c r="B26" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0"/>
+      <c r="B27" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0"/>
+      <c r="B28" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0"/>
+      <c r="B29" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0"/>
+      <c r="B30" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0"/>
+      <c r="B31" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0"/>
+      <c r="B32" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>